--- a/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20180821-Haddad.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/1-DataFolha-20180821-Haddad.xlsx
@@ -590,49 +590,49 @@
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0</v>
+        <v>4.18</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>15.31100478</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0</v>
+        <v>15.07177033</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
+        <v>15.07177033</v>
       </c>
       <c r="H10" s="1">
-        <v>0.0</v>
+        <v>28.70813397</v>
       </c>
       <c r="I10" s="1">
-        <v>0.0</v>
+        <v>25.83732057</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
+        <v>35.23809524</v>
       </c>
       <c r="K10" s="1">
-        <v>0.0</v>
+        <v>40.95238095</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>23.80952381</v>
       </c>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>32.75434243</v>
       </c>
       <c r="N10" s="1">
-        <v>0.0</v>
+        <v>48.38709677</v>
       </c>
       <c r="O10" s="1">
-        <v>0.0</v>
+        <v>13.39950372</v>
       </c>
       <c r="P10" s="1">
-        <v>0.0</v>
+        <v>5.459057072</v>
       </c>
     </row>
     <row r="11">
